--- a/Weekly Schedule/biweekly-work-schedule-吴利东1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\0 工作日报\无纸化日报Github\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\0 工作日报\无纸化日报Github\Project-Process-library\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
   <si>
     <t>分组</t>
   </si>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>编写哈行标书</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化黑白盒测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北幸福消费金融上线实施+服务器证书交流</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -902,15 +910,24 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -924,15 +941,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,13 +1359,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1378,41 +1386,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1508,13 +1516,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1535,41 +1543,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1657,16 +1665,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1675,6 +1673,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1687,7 +1695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1697,13 +1705,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1724,41 +1732,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1846,13 +1854,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1873,41 +1881,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1958,16 +1966,36 @@
       <c r="A9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -1975,6 +2003,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1988,11 +2021,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2015,32 +2043,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2049,8 +2077,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2105,7 +2133,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2125,7 +2153,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2143,7 +2171,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2161,7 +2189,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2181,7 +2209,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2199,7 +2227,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2217,7 +2245,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2237,7 +2265,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2255,7 +2283,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2293,7 +2321,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2313,7 +2341,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2359,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2349,7 +2377,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2369,7 +2397,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2387,7 +2415,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2405,7 +2433,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2425,7 +2453,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2443,7 +2471,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2501,7 +2529,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2521,7 +2549,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2539,7 +2567,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2559,7 +2587,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2577,7 +2605,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2595,7 +2623,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2613,7 +2641,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2631,7 +2659,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2649,7 +2677,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2667,7 +2695,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2685,7 +2713,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2703,7 +2731,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2721,7 +2749,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2740,11 +2768,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2755,6 +2778,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东1.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="1"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22-23周" sheetId="6" r:id="rId1"/>
     <sheet name="24-25周" sheetId="7" r:id="rId2"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="26-27周" sheetId="8" r:id="rId3"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
   <si>
     <t>分组</t>
   </si>
@@ -228,6 +229,10 @@
   </si>
   <si>
     <t>河北幸福消费金融上线实施+服务器证书交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都银行标书编写支撑</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,13 +915,31 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,21 +949,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1359,13 +1367,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1383,47 +1391,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1516,13 +1524,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1540,47 +1548,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1665,6 +1673,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1673,16 +1691,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1693,9 +1701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1705,13 +1713,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1729,47 +1737,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1854,13 +1862,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1878,47 +1886,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2003,11 +2011,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2021,6 +2024,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2028,6 +2036,311 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="35">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="35">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2043,32 +2356,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2077,8 +2390,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2133,7 +2446,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2153,7 +2466,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2171,7 +2484,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2189,7 +2502,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2209,7 +2522,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2227,7 +2540,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2245,7 +2558,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2265,7 +2578,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2596,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2634,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2341,7 +2654,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2359,7 +2672,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2377,7 +2690,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2397,7 +2710,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2415,7 +2728,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2433,7 +2746,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2453,7 +2766,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2471,7 +2784,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2529,7 +2842,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2549,7 +2862,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2567,7 +2880,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="41" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2587,7 +2900,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2605,7 +2918,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2623,7 +2936,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2641,7 +2954,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2659,7 +2972,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2677,7 +2990,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2695,7 +3008,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2713,7 +3026,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2731,7 +3044,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2749,7 +3062,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2768,6 +3081,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2778,11 +3096,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-吴利东1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-吴利东1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
   <si>
     <t>分组</t>
   </si>
@@ -233,6 +233,46 @@
   </si>
   <si>
     <t>成都银行标书编写支撑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行交流无纸化方案（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包商银行交流无纸化方案（外出）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写包商银行方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写包商银行方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改包商银行方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改包商银行方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备售前PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行售前PPT演讲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中石油灌多个章问题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中石油灌多个章问题</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -918,14 +958,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -940,15 +989,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1367,13 +1407,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1394,41 +1434,41 @@
       <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="37">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="36"/>
@@ -1524,13 +1564,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1551,41 +1591,41 @@
       <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <f>B2+7</f>
         <v>42891</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42892</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42893</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42894</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42895</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42896</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42897</v>
       </c>
-      <c r="O7" s="35"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="36"/>
@@ -1673,16 +1713,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1691,6 +1721,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1713,13 +1753,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1740,41 +1780,41 @@
       <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="37">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="36"/>
@@ -1862,13 +1902,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1889,41 +1929,41 @@
       <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="35"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="36"/>
@@ -2003,6 +2043,342 @@
       </c>
       <c r="K9" s="28" t="s">
         <v>66</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="37">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="37">
+        <f>B2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42924</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2032,310 +2408,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>26</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="35">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
-        <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="35">
-        <f>B2+7</f>
-        <v>42919</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42920</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42921</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42922</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42923</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42924</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42925</v>
-      </c>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2356,32 +2428,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="44"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2390,8 +2462,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2446,7 +2518,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2466,7 +2538,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +2556,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2502,7 +2574,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2522,7 +2594,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2540,7 +2612,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2558,7 +2630,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2578,7 +2650,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2596,7 +2668,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2634,7 +2706,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2654,7 +2726,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2672,7 +2744,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="39"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2690,7 +2762,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2710,7 +2782,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2728,7 +2800,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2746,7 +2818,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2766,7 +2838,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2784,7 +2856,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="39"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2842,7 +2914,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2862,7 +2934,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2880,7 +2952,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2900,7 +2972,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="41"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2918,7 +2990,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="41"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2936,7 +3008,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="41"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2954,7 +3026,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="41"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2972,7 +3044,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="41"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2990,7 +3062,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="41"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3008,7 +3080,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="41"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3026,7 +3098,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="41"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3044,7 +3116,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="41"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3062,7 +3134,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="41"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3081,11 +3153,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3096,6 +3163,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
